--- a/extracted_data/word_countings/output_Delivery Hero.xlsx
+++ b/extracted_data/word_countings/output_Delivery Hero.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Digitalisierung</t>
-  </si>
-  <si>
-    <t>Künstliche Intelligenz</t>
-  </si>
-  <si>
-    <t>Technologie</t>
-  </si>
-  <si>
-    <t>KI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Processing</t>
   </si>
   <si>
     <t>AI</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Adjectives</t>
   </si>
   <si>
     <t>2014</t>
@@ -410,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,169 +429,145 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>489</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>469</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>574</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1027</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>979</v>
+      </c>
+      <c r="D6">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1009</v>
+      </c>
+      <c r="D7">
+        <v>74</v>
+      </c>
+      <c r="E7">
         <v>51</v>
       </c>
-      <c r="F2">
-        <v>420</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>312</v>
+      </c>
+      <c r="D8">
+        <v>102</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>2</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>402</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4">
-        <v>482</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>151</v>
-      </c>
-      <c r="F5">
-        <v>831</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>105</v>
-      </c>
-      <c r="F6">
-        <v>828</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>116</v>
-      </c>
-      <c r="F7">
-        <v>845</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>73</v>
-      </c>
-      <c r="F8">
-        <v>181</v>
-      </c>
-      <c r="G8">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
